--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-12/result-12_03_2025_pruned_9098806415_10-12.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-12/result-12_03_2025_pruned_9098806415_10-12.xlsx
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098797441</t>
+          <t>9098796476</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T08:17:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T08:27:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>6367</v>
+        <v>7915</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -628,24 +628,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098797222</t>
+          <t>9098797538</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-12T10:25:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-12T10:35:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.699999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>15716</v>
+        <v>8356</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -692,12 +692,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098802601</t>
+          <t>9098797441</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:16:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-12T13:10:00+00:00</t>
+          <t>2025-03-12T10:26:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>396</v>
+        <v>6798</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -756,24 +756,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098803239</t>
+          <t>9098797222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-12T13:10:00+00:00</t>
+          <t>2025-03-12T10:41:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-12T13:20:00+00:00</t>
+          <t>2025-03-12T10:51:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>742</v>
+        <v>15716</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098807770</t>
+          <t>9098802601</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-12T13:21:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-12T13:31:00+00:00</t>
+          <t>2025-03-12T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1469</v>
+        <v>396</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,12 +884,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098803380</t>
+          <t>9098803239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-12T13:32:00+00:00</t>
+          <t>2025-03-12T13:10:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-12T13:42:00+00:00</t>
+          <t>2025-03-12T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>1147</v>
+        <v>742</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -948,12 +948,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098813434</t>
+          <t>9098798510</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T13:20:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.499999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>9928</v>
+        <v>882</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1012,24 +1012,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098812675</t>
+          <t>9098807770</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-12T15:16:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-12T15:46:00+00:00</t>
+          <t>2025-03-12T13:40:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.399999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>6312</v>
+        <v>963</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1071,29 +1071,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098800790</t>
+          <t>9098813434</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-12T15:47:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-12T15:57:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.399999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11" t="n">
-        <v>1408</v>
+        <v>10979</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-12T15:59:00+00:00</t>
+          <t>2025-03-12T15:19:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-12T16:09:00+00:00</t>
+          <t>2025-03-12T15:29:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.699999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="G12" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>2604</v>
+        <v>9967</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-12T16:10:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-12T16:20:00+00:00</t>
+          <t>2025-03-12T15:40:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.699999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H13" t="n">
         <v>1341</v>
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-12T16:26:00+00:00</t>
+          <t>2025-03-12T15:46:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-12T16:36:00+00:00</t>
+          <t>2025-03-12T15:56:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9.899999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="G14" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H14" t="n">
         <v>6624</v>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-12T16:39:00+00:00</t>
+          <t>2025-03-12T15:59:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-12T16:49:00+00:00</t>
+          <t>2025-03-12T16:09:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10.5</v>
+        <v>14.1</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H15" t="n">
         <v>3493</v>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-12T16:50:00+00:00</t>
+          <t>2025-03-12T16:10:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-12T17:20:00+00:00</t>
+          <t>2025-03-12T16:40:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
       <c r="G16" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
         <v>1789</v>
@@ -1477,7 +1477,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098815123</t>
+          <t>9098812675</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T16:44:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-12T17:40:00+00:00</t>
+          <t>2025-03-12T17:14:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H17" t="n">
-        <v>10313</v>
+        <v>4032</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1519,29 +1519,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098817504</t>
+          <t>9098815123</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-12T17:41:00+00:00</t>
+          <t>2025-03-12T17:20:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-12T17:51:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12.6</v>
+        <v>15.9</v>
       </c>
       <c r="G18" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H18" t="n">
-        <v>1213</v>
+        <v>6312</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1588,12 +1588,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098817329</t>
+          <t>9098817504</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-12T17:57:00+00:00</t>
+          <t>2025-03-12T17:31:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-12T18:07:00+00:00</t>
+          <t>2025-03-12T17:41:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13.8</v>
+        <v>15.9</v>
       </c>
       <c r="G19" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H19" t="n">
-        <v>6702</v>
+        <v>1213</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098800682</t>
+          <t>9098817329</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,27 +1679,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T17:47:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T17:57:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>17.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H20" t="n">
-        <v>2537</v>
+        <v>6702</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1711,29 +1711,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098796547</t>
+          <t>9098800682</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-12T10:33:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3795</v>
+        <v>2537</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098796542</t>
+          <t>9098796547</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>2025-03-12T10:33:00+00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>2025-03-12T11:03:00+00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-03-12T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>637</v>
+        <v>3795</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1861,7 +1861,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098797932</t>
+          <t>9098833298</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-12T11:34:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-12T12:04:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1885,13 +1885,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>1204</v>
+        <v>11366</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1918,14 +1918,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098833298</t>
+          <t>9098808644</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T13:44:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T14:14:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="G24" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>12702</v>
+        <v>14443</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1989,7 +1989,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098808131</t>
+          <t>9098809580</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-12T13:38:00+00:00</t>
+          <t>2025-03-12T14:19:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-12T14:08:00+00:00</t>
+          <t>2025-03-12T14:49:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>8929</v>
+        <v>5216</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2063,12 +2063,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T15:16:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T15:46:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="G26" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>27021</v>
+        <v>27582</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-12T15:54:00+00:00</t>
+          <t>2025-03-12T16:10:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-12T16:24:00+00:00</t>
+          <t>2025-03-12T16:40:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13.8</v>
+        <v>15.9</v>
       </c>
       <c r="G27" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H27" t="n">
         <v>24906</v>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="n">
         <v>4812</v>
@@ -2245,7 +2245,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098796026</t>
+          <t>9098818250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,27 +2255,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-12T08:00:00+00:00</t>
+          <t>2025-03-12T17:32:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-12T08:10:00+00:00</t>
+          <t>2025-03-12T18:02:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>16.8</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H29" t="n">
-        <v>18533</v>
+        <v>2159</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2287,29 +2287,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098797657</t>
+          <t>9098796026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8534</v>
+        <v>18533</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2356,24 +2356,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098796965</t>
+          <t>9098796425</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T08:18:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-12T10:20:00+00:00</t>
+          <t>2025-03-12T08:28:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2403,7 +2403,7 @@
         <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>140</v>
+        <v>8247</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2420,24 +2420,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098796765</t>
+          <t>9098797657</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-12T10:27:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>7759</v>
+        <v>718</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2501,7 +2501,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098796605</t>
+          <t>9098796965</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-12T10:47:00+00:00</t>
+          <t>2025-03-12T10:20:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>624</v>
+        <v>140</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098798883</t>
+          <t>9098796765</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:00+00:00</t>
+          <t>2025-03-12T10:27:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-12T11:23:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>16481</v>
+        <v>7759</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2607,17 +2607,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098816575</t>
+          <t>9098796605</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-12T11:25:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-12T11:35:00+00:00</t>
+          <t>2025-03-12T10:47:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>2546</v>
+        <v>624</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098800003</t>
+          <t>9098798883</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-12T11:51:00+00:00</t>
+          <t>2025-03-12T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-12T12:01:00+00:00</t>
+          <t>2025-03-12T11:23:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12.3</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
-        <v>16133</v>
+        <v>16481</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,17 +2735,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098806488</t>
+          <t>9098816575</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T11:25:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-12T13:20:00+00:00</t>
+          <t>2025-03-12T11:35:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>16.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>22618</v>
+        <v>2546</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2814,14 +2814,14 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098798838</t>
+          <t>9098800003</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-12T13:23:00+00:00</t>
+          <t>2025-03-12T11:51:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-12T13:33:00+00:00</t>
+          <t>2025-03-12T12:01:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2845,13 +2845,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17.1</v>
+        <v>12.3</v>
       </c>
       <c r="G38" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="H38" t="n">
-        <v>3258</v>
+        <v>16133</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2868,24 +2868,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098796766</t>
+          <t>9098806488</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-12T13:35:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-12T13:45:00+00:00</t>
+          <t>2025-03-12T13:20:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17.4</v>
+        <v>16.5</v>
       </c>
       <c r="G39" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H39" t="n">
-        <v>2028</v>
+        <v>22618</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2949,7 +2949,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098811867</t>
+          <t>9098798838</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T13:23:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T13:33:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>19.5</v>
+        <v>17.1</v>
       </c>
       <c r="G40" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H40" t="n">
-        <v>11263</v>
+        <v>3258</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,24 +2996,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098812466</t>
+          <t>9098796766</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T13:35:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-12T15:40:00+00:00</t>
+          <t>2025-03-12T13:45:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>19.5</v>
+        <v>17.4</v>
       </c>
       <c r="G41" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H41" t="n">
-        <v>843</v>
+        <v>2028</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3055,29 +3055,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098811646</t>
+          <t>9098809708</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-12T15:46:00+00:00</t>
+          <t>2025-03-12T13:48:00+00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-12T15:56:00+00:00</t>
+          <t>2025-03-12T13:58:00+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>20.7</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H42" t="n">
-        <v>6954</v>
+        <v>3802</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3124,24 +3124,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098810212</t>
+          <t>9098803380</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-12T16:10:00+00:00</t>
+          <t>2025-03-12T14:00:00+00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-12T16:20:00+00:00</t>
+          <t>2025-03-12T14:10:00+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.4</v>
+        <v>18.3</v>
       </c>
       <c r="G43" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H43" t="n">
-        <v>14626</v>
+        <v>2483</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3198,14 +3198,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098816279</t>
+          <t>9098811867</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-12T16:33:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-12T16:43:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3229,13 +3229,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>25.8</v>
+        <v>20.1</v>
       </c>
       <c r="G44" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H44" t="n">
-        <v>13409</v>
+        <v>9910</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3269,7 +3269,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098811195</t>
+          <t>9098811646</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-12T16:58:00+00:00</t>
+          <t>2025-03-12T15:17:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-12T17:08:00+00:00</t>
+          <t>2025-03-12T15:27:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3293,13 +3293,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>28.5</v>
+        <v>21.3</v>
       </c>
       <c r="G45" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="H45" t="n">
-        <v>15972</v>
+        <v>7523</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098800694</t>
+          <t>9098810212</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3343,27 +3343,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T15:41:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T15:51:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.3</v>
+        <v>24</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H46" t="n">
-        <v>3209</v>
+        <v>14626</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3375,29 +3375,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9098810737</t>
+          <t>9098816279</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T16:14:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.1</v>
+        <v>26.4</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="H47" t="n">
-        <v>9874</v>
+        <v>13409</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3461,7 +3461,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9098810368</t>
+          <t>9098811195</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3471,27 +3471,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-12T15:39:00+00:00</t>
+          <t>2025-03-12T16:29:00+00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-12T15:49:00+00:00</t>
+          <t>2025-03-12T16:39:00+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.899999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="G48" t="n">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H48" t="n">
-        <v>9760</v>
+        <v>15972</v>
       </c>
       <c r="I48">
         <f>IF(E48=E47,H48+I47,H48)</f>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3525,7 +3525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098799836</t>
+          <t>9098800694</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-12T15:51:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-12T16:01:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3549,13 +3549,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2290</v>
+        <v>3209</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3567,29 +3567,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098811900</t>
+          <t>9098796819</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-12T16:14:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-12T18:04:00+00:00</t>
+          <t>2025-03-12T10:47:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="G50" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>13388</v>
+        <v>7837</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3631,29 +3631,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098816602</t>
+          <t>9098799836</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-12T18:09:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-12T18:39:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="G51" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>5370</v>
+        <v>6217</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3695,29 +3695,29 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098802621</t>
+          <t>9098812466</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,27 +3727,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T15:17:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T15:47:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>1059</v>
+        <v>7768</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3759,29 +3759,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9098799802</t>
+          <t>9098811900</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-12T10:37:00+00:00</t>
+          <t>2025-03-12T15:53:00+00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-12T11:07:00+00:00</t>
+          <t>2025-03-12T17:43:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H53" t="n">
-        <v>7304</v>
+        <v>6954</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3823,29 +3823,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098806278</t>
+          <t>9098816602</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T17:48:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T18:18:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.8</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
-        <v>4728</v>
+        <v>5370</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3892,24 +3892,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098809580</t>
+          <t>9098800814</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,12 +3919,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-12T14:00:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>247</v>
+        <v>2646</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3966,14 +3966,14 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098810864</t>
+          <t>9098806278</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>4489</v>
+        <v>5251</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4020,24 +4020,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098815112</t>
+          <t>9098806909</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-12T15:31:00+00:00</t>
+          <t>2025-03-12T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-12T16:01:00+00:00</t>
+          <t>2025-03-12T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="G57" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>1797</v>
+        <v>2876</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4094,14 +4094,14 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098814866</t>
+          <t>9098806275</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-12T16:08:00+00:00</t>
+          <t>2025-03-12T14:05:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-12T16:38:00+00:00</t>
+          <t>2025-03-12T14:35:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4125,13 +4125,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.899999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G58" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>7638</v>
+        <v>3506</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4158,14 +4158,14 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098817533</t>
+          <t>9098810864</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="G59" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
-        <v>11869</v>
+        <v>4556</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4222,14 +4222,14 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098818250</t>
+          <t>9098815112</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-12T17:31:00+00:00</t>
+          <t>2025-03-12T15:31:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-12T18:01:00+00:00</t>
+          <t>2025-03-12T16:01:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>1523</v>
+        <v>1797</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4276,17 +4276,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-12T18:08:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-12T18:38:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="G61" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H61" t="n">
-        <v>7186</v>
+        <v>11013</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4357,7 +4357,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098806415</t>
+          <t>9098817533</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T17:38:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T18:08:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H62" t="n">
-        <v>13108</v>
+        <v>8162</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4399,29 +4399,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098800372</t>
+          <t>9098806415</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-12T10:41:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-12T11:11:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4445,13 +4445,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>11234</v>
+        <v>13108</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098797833</t>
+          <t>9098800372</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-12T11:15:00+00:00</t>
+          <t>2025-03-12T10:41:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-12T11:45:00+00:00</t>
+          <t>2025-03-12T11:11:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4509,13 +4509,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.799999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
-        <v>4302</v>
+        <v>11234</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4549,7 +4549,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098799917</t>
+          <t>9098797833</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-12T11:46:00+00:00</t>
+          <t>2025-03-12T11:15:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-12T12:16:00+00:00</t>
+          <t>2025-03-12T11:45:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4576,10 +4576,10 @@
         <v>4.799999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65" t="n">
-        <v>1496</v>
+        <v>4302</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4613,7 +4613,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098809379</t>
+          <t>9098802467</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5.099999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>2295</v>
+        <v>21122</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4677,7 +4677,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098802467</t>
+          <t>9098809379</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9.599999999999998</v>
+        <v>13.2</v>
       </c>
       <c r="G67" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H67" t="n">
         <v>24308</v>
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="G68" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H68" t="n">
-        <v>32342</v>
+        <v>8231</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="G69" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H69" t="n">
         <v>7835</v>
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="G70" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H70" t="n">
         <v>1181</v>
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>17.4</v>
+        <v>16.5</v>
       </c>
       <c r="G71" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H71" t="n">
         <v>4669</v>
@@ -5021,10 +5021,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="G72" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H72" t="n">
         <v>4222</v>
@@ -5061,7 +5061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098801562</t>
+          <t>9098799802</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-12T10:25:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>17813</v>
+        <v>7230</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098802798</t>
+          <t>9098797932</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-12T10:43:00+00:00</t>
+          <t>2025-03-12T10:37:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-12T11:13:00+00:00</t>
+          <t>2025-03-12T11:07:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5149,13 +5149,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>18189</v>
+        <v>7903</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5189,7 +5189,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098800814</t>
+          <t>9098802621</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-12T11:16:00+00:00</t>
+          <t>2025-03-12T11:07:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-12T11:46:00+00:00</t>
+          <t>2025-03-12T11:37:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H75" t="n">
-        <v>3966</v>
+        <v>609</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5253,7 +5253,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098808858</t>
+          <t>9098801562</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T11:54:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T12:19:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8.399999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G76" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H76" t="n">
-        <v>6569</v>
+        <v>17329</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5300,24 +5300,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098808644</t>
+          <t>9098808131</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-12T13:36:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-12T14:06:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9.599999999999998</v>
+        <v>9</v>
       </c>
       <c r="G77" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H77" t="n">
-        <v>6455</v>
+        <v>20375</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5381,7 +5381,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098817370</t>
+          <t>9098809258</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T13:38:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T14:08:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="G78" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H78" t="n">
-        <v>13864</v>
+        <v>8929</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5438,14 +5438,14 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>12.03.2025 17:00:00-19:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098818246</t>
+          <t>9098817715</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-12T17:39:00+00:00</t>
+          <t>2025-03-12T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-12T18:09:00+00:00</t>
+          <t>2025-03-12T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="G79" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H79" t="n">
-        <v>9411</v>
+        <v>7437</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5509,7 +5509,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098817524</t>
+          <t>9098818246</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-12T18:11:00+00:00</t>
+          <t>2025-03-12T17:32:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-12T18:41:00+00:00</t>
+          <t>2025-03-12T18:02:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H80" t="n">
-        <v>2704</v>
+        <v>2552</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098817715</t>
+          <t>9098817524</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-12T18:42:00+00:00</t>
+          <t>2025-03-12T18:04:00+00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-12T19:12:00+00:00</t>
+          <t>2025-03-12T18:34:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5597,13 +5597,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="G81" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H81" t="n">
-        <v>1602</v>
+        <v>2704</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -6213,7 +6213,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9098809708</t>
+          <t>9098813993</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-12T14:02:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-03-12T14:12:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H91" t="n">
-        <v>1872</v>
+        <v>8338</v>
       </c>
       <c r="I91">
         <f>IF(E91=E90,H91+I90,H91)</f>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6270,14 +6270,14 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>9098813993</t>
+          <t>9098809968</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T15:36:00+00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-03-12T15:30:00+00:00</t>
+          <t>2025-03-12T16:06:00+00:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6301,13 +6301,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="G92" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H92" t="n">
-        <v>7710</v>
+        <v>6853</v>
       </c>
       <c r="I92">
         <f>IF(E92=E91,H92+I91,H92)</f>
@@ -6324,12 +6324,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6341,7 +6341,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>9098809968</t>
+          <t>9098811408</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-12T15:36:00+00:00</t>
+          <t>2025-03-12T16:08:00+00:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-03-12T16:06:00+00:00</t>
+          <t>2025-03-12T16:18:00+00:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H93" t="n">
-        <v>6853</v>
+        <v>2134</v>
       </c>
       <c r="I93">
         <f>IF(E93=E92,H93+I92,H93)</f>
@@ -6383,17 +6383,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6405,7 +6405,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9098811408</t>
+          <t>9098808949</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-12T16:08:00+00:00</t>
+          <t>2025-03-12T16:19:00+00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-03-12T16:18:00+00:00</t>
+          <t>2025-03-12T16:29:00+00:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6432,10 +6432,10 @@
         <v>4.8</v>
       </c>
       <c r="G94" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" t="n">
-        <v>2134</v>
+        <v>1184</v>
       </c>
       <c r="I94">
         <f>IF(E94=E93,H94+I93,H94)</f>
@@ -6479,12 +6479,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-03-12T16:25:00+00:00</t>
+          <t>2025-03-12T16:34:00+00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-03-12T16:55:00+00:00</t>
+          <t>2025-03-12T17:04:00+00:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95" t="n">
-        <v>7069</v>
+        <v>5885</v>
       </c>
       <c r="I95">
         <f>IF(E95=E94,H95+I94,H95)</f>
@@ -6543,12 +6543,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T17:06:00+00:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-03-12T17:30:00+00:00</t>
+          <t>2025-03-12T17:36:00+00:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6.3</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96" t="n">
         <v>2865</v>
@@ -6789,7 +6789,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9098804147</t>
+          <t>9098807980</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6819,7 +6819,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="n">
-        <v>2164</v>
+        <v>2283</v>
       </c>
       <c r="I100">
         <f>IF(E100=E99,H100+I99,H100)</f>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9098804799</t>
+          <t>9098804147</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-12T14:14:00+00:00</t>
+          <t>2025-03-12T14:13:00+00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-03-12T14:44:00+00:00</t>
+          <t>2025-03-12T14:23:00+00:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6880,10 +6880,10 @@
         <v>1.2</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H101" t="n">
-        <v>1560</v>
+        <v>138</v>
       </c>
       <c r="I101">
         <f>IF(E101=E100,H101+I100,H101)</f>
@@ -6895,17 +6895,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -6917,7 +6917,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9098807980</t>
+          <t>9098804799</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-12T14:45:00+00:00</t>
+          <t>2025-03-12T14:24:00+00:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-03-12T14:55:00+00:00</t>
+          <t>2025-03-12T14:54:00+00:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6941,13 +6941,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102" t="n">
-        <v>1693</v>
+        <v>1560</v>
       </c>
       <c r="I102">
         <f>IF(E102=E101,H102+I101,H102)</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6991,12 +6991,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-12T14:55:00+00:00</t>
+          <t>2025-03-12T14:56:00+00:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-03-12T15:25:00+00:00</t>
+          <t>2025-03-12T15:26:00+00:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7008,10 +7008,10 @@
         <v>1.5</v>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H103" t="n">
-        <v>972</v>
+        <v>2556</v>
       </c>
       <c r="I103">
         <f>IF(E103=E102,H103+I102,H103)</f>
@@ -7055,12 +7055,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-12T15:26:00+00:00</t>
+          <t>2025-03-12T15:27:00+00:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-03-12T15:56:00+00:00</t>
+          <t>2025-03-12T15:57:00+00:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7072,7 +7072,7 @@
         <v>1.8</v>
       </c>
       <c r="G104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H104" t="n">
         <v>1802</v>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-12T16:03:00+00:00</t>
+          <t>2025-03-12T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-03-12T16:33:00+00:00</t>
+          <t>2025-03-12T16:34:00+00:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7136,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H105" t="n">
         <v>7075</v>
@@ -7173,7 +7173,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9098808949</t>
+          <t>9098800790</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G106" t="n">
         <v>22</v>
       </c>
       <c r="H106" t="n">
-        <v>5885</v>
+        <v>4765</v>
       </c>
       <c r="I106">
         <f>IF(E106=E105,H106+I105,H106)</f>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7261,13 +7261,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="G107" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H107" t="n">
-        <v>7906</v>
+        <v>6994</v>
       </c>
       <c r="I107">
         <f>IF(E107=E106,H107+I106,H107)</f>
@@ -7365,7 +7365,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>9098809258</t>
+          <t>9098802798</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7375,12 +7375,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:25:00+00:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T10:55:00+00:00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7389,13 +7389,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>11711</v>
+        <v>660</v>
       </c>
       <c r="I109">
         <f>IF(E109=E108,H109+I108,H109)</f>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7422,14 +7422,14 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9098807199</t>
+          <t>9098796542</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-03-12T13:42:00+00:00</t>
+          <t>2025-03-12T10:55:00+00:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025-03-12T14:12:00+00:00</t>
+          <t>2025-03-12T11:25:00+00:00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>12328</v>
+        <v>743</v>
       </c>
       <c r="I110">
         <f>IF(E110=E109,H110+I109,H110)</f>
@@ -7476,24 +7476,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>9098806909</t>
+          <t>9098807199</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-03-12T14:12:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025-03-12T14:42:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7517,13 +7517,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="G111" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>806</v>
+        <v>1828</v>
       </c>
       <c r="I111">
         <f>IF(E111=E110,H111+I110,H111)</f>
@@ -7557,7 +7557,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9098806275</t>
+          <t>9098808858</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7567,12 +7567,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-03-12T14:45:00+00:00</t>
+          <t>2025-03-12T13:34:00+00:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025-03-12T15:15:00+00:00</t>
+          <t>2025-03-12T14:04:00+00:00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7581,13 +7581,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
-        <v>3506</v>
+        <v>4366</v>
       </c>
       <c r="I112">
         <f>IF(E112=E111,H112+I111,H112)</f>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-03-12T15:19:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-03-12T15:44:00+00:00</t>
+          <t>2025-03-12T15:25:00+00:00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7645,13 +7645,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G113" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H113" t="n">
-        <v>4889</v>
+        <v>3683</v>
       </c>
       <c r="I113">
         <f>IF(E113=E112,H113+I112,H113)</f>
@@ -7695,12 +7695,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-03-12T15:44:00+00:00</t>
+          <t>2025-03-12T15:25:00+00:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-03-12T16:14:00+00:00</t>
+          <t>2025-03-12T15:55:00+00:00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7709,10 +7709,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G114" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H114" t="n">
         <v>619</v>
@@ -7759,12 +7759,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-03-12T16:17:00+00:00</t>
+          <t>2025-03-12T15:58:00+00:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-03-12T16:42:00+00:00</t>
+          <t>2025-03-12T16:23:00+00:00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -7773,10 +7773,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5.999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="G115" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H115" t="n">
         <v>3132</v>
@@ -7813,7 +7813,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>9098797435</t>
+          <t>9098814866</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7823,27 +7823,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T16:27:00+00:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T16:57:00+00:00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H116" t="n">
-        <v>11389</v>
+        <v>4028</v>
       </c>
       <c r="I116">
         <f>IF(E116=E115,H116+I115,H116)</f>
@@ -7855,29 +7855,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>9098805804</t>
+          <t>9098817370</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7887,27 +7887,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T17:08:00+00:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T17:38:00+00:00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="G117" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H117" t="n">
-        <v>7468</v>
+        <v>11683</v>
       </c>
       <c r="I117">
         <f>IF(E117=E116,H117+I116,H117)</f>
@@ -7919,29 +7919,29 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9098802162</t>
+          <t>9098797435</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-03-12T13:32:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025-03-12T14:02:00+00:00</t>
+          <t>2025-03-12T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="G118" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2281</v>
+        <v>11389</v>
       </c>
       <c r="I118">
         <f>IF(E118=E117,H118+I117,H118)</f>
@@ -7983,29 +7983,29 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>9098804260</t>
+          <t>9098805804</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8020,22 +8020,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025-03-12T14:50:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>2083</v>
+        <v>7468</v>
       </c>
       <c r="I119">
         <f>IF(E119=E118,H119+I118,H119)</f>
@@ -8052,12 +8052,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8069,7 +8069,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>9098798510</t>
+          <t>9098802162</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8079,27 +8079,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-03-12T14:50:00+00:00</t>
+          <t>2025-03-12T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025-03-12T15:00:00+00:00</t>
+          <t>2025-03-12T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H120" t="n">
-        <v>660</v>
+        <v>2281</v>
       </c>
       <c r="I120">
         <f>IF(E120=E119,H120+I119,H120)</f>
@@ -8111,17 +8111,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8133,7 +8133,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>9098814517</t>
+          <t>9098810737</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8143,27 +8143,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-03-12T15:10:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-03-12T17:00:00+00:00</t>
+          <t>2025-03-12T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.1</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H121" t="n">
-        <v>10806</v>
+        <v>10425</v>
       </c>
       <c r="I121">
         <f>IF(E121=E120,H121+I120,H121)</f>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8197,7 +8197,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>9098797338</t>
+          <t>9098804260</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8207,17 +8207,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-03-12T10:30:00+00:00</t>
+          <t>2025-03-12T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2004</v>
+        <v>2083</v>
       </c>
       <c r="I122">
         <f>IF(E122=E121,H122+I121,H122)</f>
@@ -8244,24 +8244,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9098800098</t>
+          <t>9098814517</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8271,27 +8271,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-03-12T10:48:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-03-12T11:18:00+00:00</t>
+          <t>2025-03-12T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="G123" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H123" t="n">
-        <v>18268</v>
+        <v>10353</v>
       </c>
       <c r="I123">
         <f>IF(E123=E122,H123+I122,H123)</f>
@@ -8308,24 +8308,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>9098796540</t>
+          <t>9098797338</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8335,12 +8335,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-03-12T11:35:00+00:00</t>
+          <t>2025-03-12T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-03-12T12:05:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8349,13 +8349,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="G124" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>17682</v>
+        <v>2004</v>
       </c>
       <c r="I124">
         <f>IF(E124=E123,H124+I123,H124)</f>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8389,7 +8389,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9098807631</t>
+          <t>9098796540</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8399,12 +8399,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-03-12T13:00:00+00:00</t>
+          <t>2025-03-12T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8413,13 +8413,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="G125" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1195</v>
+        <v>587</v>
       </c>
       <c r="I125">
         <f>IF(E125=E124,H125+I124,H125)</f>
@@ -8436,24 +8436,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>9098802166</t>
+          <t>9098799917</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8463,12 +8463,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-03-12T13:30:00+00:00</t>
+          <t>2025-03-12T11:01:00+00:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-03-12T14:00:00+00:00</t>
+          <t>2025-03-12T11:31:00+00:00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8477,13 +8477,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="G126" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>972</v>
+        <v>1041</v>
       </c>
       <c r="I126">
         <f>IF(E126=E125,H126+I125,H126)</f>
@@ -8500,24 +8500,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>9098802527</t>
+          <t>9098800098</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-03-12T14:00:00+00:00</t>
+          <t>2025-03-12T11:49:00+00:00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025-03-12T14:30:00+00:00</t>
+          <t>2025-03-12T12:19:00+00:00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="G127" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>18520</v>
       </c>
       <c r="I127">
         <f>IF(E127=E126,H127+I126,H127)</f>
@@ -8564,24 +8564,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>12.03.2025 13:00:00-15:00:00</t>
+          <t>12.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>9098808550</t>
+          <t>9098807631</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8591,12 +8591,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-03-12T14:34:00+00:00</t>
+          <t>2025-03-12T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-03-12T15:04:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8605,13 +8605,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>7.199999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H128" t="n">
-        <v>4290</v>
+        <v>18788</v>
       </c>
       <c r="I128">
         <f>IF(E128=E127,H128+I127,H128)</f>
@@ -8628,12 +8628,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -8645,7 +8645,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>9098813045</t>
+          <t>9098802527</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8655,12 +8655,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-03-12T15:11:00+00:00</t>
+          <t>2025-03-12T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-03-12T15:41:00+00:00</t>
+          <t>2025-03-12T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8669,13 +8669,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>8.399999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H129" t="n">
-        <v>7356</v>
+        <v>972</v>
       </c>
       <c r="I129">
         <f>IF(E129=E128,H129+I128,H129)</f>
@@ -8692,24 +8692,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>12.03.2025 15:00:00-17:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>9098796476</t>
+          <t>9098808550</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8719,27 +8719,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-03-12T08:00:00+00:00</t>
+          <t>2025-03-12T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-03-12T08:10:00+00:00</t>
+          <t>2025-03-12T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9541</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3.3</v>
+        <v>7.499999999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H130" t="n">
-        <v>18984</v>
+        <v>4290</v>
       </c>
       <c r="I130">
         <f>IF(E130=E129,H130+I129,H130)</f>
@@ -8751,29 +8751,29 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>9098796425</t>
+          <t>9098802166</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8783,27 +8783,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-03-12T08:18:00+00:00</t>
+          <t>2025-03-12T14:38:00+00:00</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-03-12T08:28:00+00:00</t>
+          <t>2025-03-12T15:08:00+00:00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>9541</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="G131" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H131" t="n">
-        <v>8570</v>
+        <v>4290</v>
       </c>
       <c r="I131">
         <f>IF(E131=E130,H131+I130,H131)</f>
@@ -8815,29 +8815,29 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>12.03.2025 08:00:00-10:00:00</t>
+          <t>12.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>9098796819</t>
+          <t>9098813045</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8847,27 +8847,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-03-12T10:00:00+00:00</t>
+          <t>2025-03-12T15:19:00+00:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-03-12T10:10:00+00:00</t>
+          <t>2025-03-12T15:49:00+00:00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>9541</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4.8</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H132" t="n">
-        <v>1344</v>
+        <v>11170</v>
       </c>
       <c r="I132">
         <f>IF(E132=E131,H132+I131,H132)</f>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -8894,14 +8894,14 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>9098797538</t>
+          <t>9098810368</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-03-12T10:11:00+00:00</t>
+          <t>2025-03-12T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-03-12T10:21:00+00:00</t>
+          <t>2025-03-12T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8925,13 +8925,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="G133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>1615</v>
+        <v>3683</v>
       </c>
       <c r="I133">
         <f>IF(E133=E132,H133+I132,H133)</f>
@@ -8948,17 +8948,17 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>12.03.2025 10:00:00-12:00:00</t>
+          <t>12.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -9721,16 +9721,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -9752,16 +9752,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9777,16 +9777,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -9808,13 +9808,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -9836,16 +9836,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -10004,16 +10004,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -10113,16 +10113,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -10186,16 +10186,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
@@ -10217,16 +10217,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10242,16 +10242,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
         <v>80</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -10273,13 +10273,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F27" t="n">
         <v>30</v>
@@ -10301,16 +10301,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>90</v>
+      </c>
+      <c r="E28" t="n">
         <v>60</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>60</v>
-      </c>
-      <c r="E28" t="n">
-        <v>90</v>
-      </c>
-      <c r="F28" t="n">
-        <v>90</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D29" t="n">
         <v>60</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D30" t="n">
         <v>60</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -10469,16 +10469,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D34" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>60</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E36" t="n">
         <v>110</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D37" t="n">
         <v>120</v>
@@ -10578,16 +10578,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -10726,11 +10726,11 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10782,11 +10782,11 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10894,11 +10894,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11090,11 +11090,11 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -11174,11 +11174,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11314,11 +11314,11 @@
         <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11510,11 +11510,11 @@
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11706,11 +11706,11 @@
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11762,11 +11762,11 @@
         <v>4</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11930,11 +11930,11 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -11958,11 +11958,11 @@
         <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12098,11 +12098,11 @@
         <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12686,11 +12686,11 @@
         <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12882,11 +12882,11 @@
         <v>11</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13078,11 +13078,11 @@
         <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13274,11 +13274,11 @@
         <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13470,11 +13470,11 @@
         <v>11</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13666,11 +13666,11 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14114,11 +14114,11 @@
         <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14254,11 +14254,11 @@
         <v>4</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14310,11 +14310,11 @@
         <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14590,11 +14590,11 @@
         <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14842,11 +14842,11 @@
         <v>11</v>
       </c>
       <c r="E151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15038,11 +15038,11 @@
         <v>11</v>
       </c>
       <c r="E158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15458,11 +15458,11 @@
         <v>3</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15486,11 +15486,11 @@
         <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15626,11 +15626,11 @@
         <v>11</v>
       </c>
       <c r="E179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15822,11 +15822,11 @@
         <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16018,11 +16018,11 @@
         <v>4</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16074,11 +16074,11 @@
         <v>4</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16214,11 +16214,11 @@
         <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16410,11 +16410,11 @@
         <v>4</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16466,11 +16466,11 @@
         <v>4</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16802,11 +16802,11 @@
         <v>11</v>
       </c>
       <c r="E221" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17054,11 +17054,11 @@
         <v>2</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17194,11 +17194,11 @@
         <v>11</v>
       </c>
       <c r="E235" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17782,11 +17782,11 @@
         <v>4</v>
       </c>
       <c r="E256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17838,11 +17838,11 @@
         <v>4</v>
       </c>
       <c r="E258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18174,11 +18174,11 @@
         <v>11</v>
       </c>
       <c r="E270" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18314,11 +18314,11 @@
         <v>4</v>
       </c>
       <c r="E275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18566,11 +18566,11 @@
         <v>4</v>
       </c>
       <c r="E284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18622,11 +18622,11 @@
         <v>4</v>
       </c>
       <c r="E286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18762,11 +18762,11 @@
         <v>11</v>
       </c>
       <c r="E291" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18958,11 +18958,11 @@
         <v>4</v>
       </c>
       <c r="E298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19014,11 +19014,11 @@
         <v>4</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F300" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19126,11 +19126,11 @@
         <v>4</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19154,11 +19154,11 @@
         <v>4</v>
       </c>
       <c r="E305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19210,11 +19210,11 @@
         <v>4</v>
       </c>
       <c r="E307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19350,11 +19350,11 @@
         <v>11</v>
       </c>
       <c r="E312" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19546,11 +19546,11 @@
         <v>11</v>
       </c>
       <c r="E319" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19742,11 +19742,11 @@
         <v>4</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F326" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19798,11 +19798,11 @@
         <v>4</v>
       </c>
       <c r="E328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19938,11 +19938,11 @@
         <v>11</v>
       </c>
       <c r="E333" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20078,11 +20078,11 @@
         <v>4</v>
       </c>
       <c r="E338" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20330,11 +20330,11 @@
         <v>4</v>
       </c>
       <c r="E347" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20582,11 +20582,11 @@
         <v>3</v>
       </c>
       <c r="E356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20722,11 +20722,11 @@
         <v>11</v>
       </c>
       <c r="E361" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21114,11 +21114,11 @@
         <v>11</v>
       </c>
       <c r="E375" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21310,11 +21310,11 @@
         <v>11</v>
       </c>
       <c r="E382" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21702,11 +21702,11 @@
         <v>4</v>
       </c>
       <c r="E396" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21758,11 +21758,11 @@
         <v>4</v>
       </c>
       <c r="E398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21898,11 +21898,11 @@
         <v>11</v>
       </c>
       <c r="E403" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22150,11 +22150,11 @@
         <v>4</v>
       </c>
       <c r="E412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22486,11 +22486,11 @@
         <v>11</v>
       </c>
       <c r="E424" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22682,11 +22682,11 @@
         <v>4</v>
       </c>
       <c r="E431" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22738,11 +22738,11 @@
         <v>4</v>
       </c>
       <c r="E433" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23074,11 +23074,11 @@
         <v>4</v>
       </c>
       <c r="E445" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23130,11 +23130,11 @@
         <v>4</v>
       </c>
       <c r="E447" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23270,11 +23270,11 @@
         <v>11</v>
       </c>
       <c r="E452" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23466,11 +23466,11 @@
         <v>11</v>
       </c>
       <c r="E459" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23858,11 +23858,11 @@
         <v>11</v>
       </c>
       <c r="E473" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23998,11 +23998,11 @@
         <v>4</v>
       </c>
       <c r="E478" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24250,11 +24250,11 @@
         <v>11</v>
       </c>
       <c r="E487" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24418,11 +24418,11 @@
         <v>4</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24698,11 +24698,11 @@
         <v>3</v>
       </c>
       <c r="E503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24838,11 +24838,11 @@
         <v>11</v>
       </c>
       <c r="E508" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F508" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -25034,11 +25034,11 @@
         <v>11</v>
       </c>
       <c r="E515" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26014,11 +26014,11 @@
         <v>4</v>
       </c>
       <c r="E550" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26070,11 +26070,11 @@
         <v>4</v>
       </c>
       <c r="E552" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26210,11 +26210,11 @@
         <v>11</v>
       </c>
       <c r="E557" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F557" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26378,11 +26378,11 @@
         <v>4</v>
       </c>
       <c r="E563" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F563" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26406,11 +26406,11 @@
         <v>4</v>
       </c>
       <c r="E564" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26462,11 +26462,11 @@
         <v>4</v>
       </c>
       <c r="E566" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26602,11 +26602,11 @@
         <v>4</v>
       </c>
       <c r="E571" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F571" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26658,11 +26658,11 @@
         <v>4</v>
       </c>
       <c r="E573" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26798,11 +26798,11 @@
         <v>4</v>
       </c>
       <c r="E578" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26854,11 +26854,11 @@
         <v>4</v>
       </c>
       <c r="E580" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27582,11 +27582,11 @@
         <v>4</v>
       </c>
       <c r="E606" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F606" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27638,11 +27638,11 @@
         <v>4</v>
       </c>
       <c r="E608" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27834,11 +27834,11 @@
         <v>4</v>
       </c>
       <c r="E615" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27974,11 +27974,11 @@
         <v>11</v>
       </c>
       <c r="E620" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28170,11 +28170,11 @@
         <v>11</v>
       </c>
       <c r="E627" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28534,11 +28534,11 @@
         <v>4</v>
       </c>
       <c r="E640" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F640" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28954,11 +28954,11 @@
         <v>4</v>
       </c>
       <c r="E655" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F655" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29010,11 +29010,11 @@
         <v>4</v>
       </c>
       <c r="E657" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29150,11 +29150,11 @@
         <v>11</v>
       </c>
       <c r="E662" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -29542,11 +29542,11 @@
         <v>4</v>
       </c>
       <c r="E676" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F676" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29598,11 +29598,11 @@
         <v>4</v>
       </c>
       <c r="E678" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29710,11 +29710,11 @@
         <v>4</v>
       </c>
       <c r="E682" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F682" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29738,11 +29738,11 @@
         <v>4</v>
       </c>
       <c r="E683" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29794,11 +29794,11 @@
         <v>4</v>
       </c>
       <c r="E685" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -30130,11 +30130,11 @@
         <v>4</v>
       </c>
       <c r="E697" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -30186,11 +30186,11 @@
         <v>4</v>
       </c>
       <c r="E699" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -30326,11 +30326,11 @@
         <v>11</v>
       </c>
       <c r="E704" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F704" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -30718,11 +30718,11 @@
         <v>11</v>
       </c>
       <c r="E718" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F718" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -30914,11 +30914,11 @@
         <v>4</v>
       </c>
       <c r="E725" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -31558,11 +31558,11 @@
         <v>2</v>
       </c>
       <c r="E748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -31698,11 +31698,11 @@
         <v>4</v>
       </c>
       <c r="E753" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -31894,11 +31894,11 @@
         <v>11</v>
       </c>
       <c r="E760" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -32090,11 +32090,11 @@
         <v>11</v>
       </c>
       <c r="E767" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F767" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -32258,11 +32258,11 @@
         <v>4</v>
       </c>
       <c r="E773" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F773" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -32734,11 +32734,11 @@
         <v>3</v>
       </c>
       <c r="E790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -32846,11 +32846,11 @@
         <v>4</v>
       </c>
       <c r="E794" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F794" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -33070,11 +33070,11 @@
         <v>4</v>
       </c>
       <c r="E802" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33098,11 +33098,11 @@
         <v>4</v>
       </c>
       <c r="E803" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -33126,11 +33126,11 @@
         <v>4</v>
       </c>
       <c r="E804" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33266,11 +33266,11 @@
         <v>4</v>
       </c>
       <c r="E809" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33294,11 +33294,11 @@
         <v>4</v>
       </c>
       <c r="E810" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F810" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33322,11 +33322,11 @@
         <v>4</v>
       </c>
       <c r="E811" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33658,11 +33658,11 @@
         <v>4</v>
       </c>
       <c r="E823" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33714,11 +33714,11 @@
         <v>4</v>
       </c>
       <c r="E825" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -33854,11 +33854,11 @@
         <v>11</v>
       </c>
       <c r="E830" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34022,11 +34022,11 @@
         <v>4</v>
       </c>
       <c r="E836" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F836" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34050,11 +34050,11 @@
         <v>4</v>
       </c>
       <c r="E837" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -34106,11 +34106,11 @@
         <v>4</v>
       </c>
       <c r="E839" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -34246,11 +34246,11 @@
         <v>11</v>
       </c>
       <c r="E844" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34442,11 +34442,11 @@
         <v>11</v>
       </c>
       <c r="E851" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F851" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34638,11 +34638,11 @@
         <v>11</v>
       </c>
       <c r="E858" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34806,11 +34806,11 @@
         <v>4</v>
       </c>
       <c r="E864" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F864" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -34834,11 +34834,11 @@
         <v>4</v>
       </c>
       <c r="E865" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -34890,11 +34890,11 @@
         <v>4</v>
       </c>
       <c r="E867" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -35058,11 +35058,11 @@
         <v>4</v>
       </c>
       <c r="E873" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -35086,11 +35086,11 @@
         <v>4</v>
       </c>
       <c r="E874" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -35226,11 +35226,11 @@
         <v>11</v>
       </c>
       <c r="E879" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -35422,11 +35422,11 @@
         <v>11</v>
       </c>
       <c r="E886" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F886" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -35758,11 +35758,11 @@
         <v>4</v>
       </c>
       <c r="E898" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -35982,11 +35982,11 @@
         <v>4</v>
       </c>
       <c r="E906" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F906" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -36010,11 +36010,11 @@
         <v>4</v>
       </c>
       <c r="E907" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -36038,11 +36038,11 @@
         <v>4</v>
       </c>
       <c r="E908" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -36066,11 +36066,11 @@
         <v>4</v>
       </c>
       <c r="E909" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -36206,11 +36206,11 @@
         <v>11</v>
       </c>
       <c r="E914" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -36374,11 +36374,11 @@
         <v>4</v>
       </c>
       <c r="E920" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F920" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -36560,7 +36560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88904</v>
+        <v>105560</v>
       </c>
     </row>
     <row r="3">
@@ -36570,7 +36570,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86543</v>
+        <v>96816</v>
       </c>
     </row>
     <row r="4">
@@ -36580,7 +36580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161721</v>
+        <v>166810</v>
       </c>
     </row>
     <row r="5">
@@ -36590,7 +36590,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43891</v>
+        <v>37355</v>
       </c>
     </row>
     <row r="6">
@@ -36600,7 +36600,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47840</v>
+        <v>39807</v>
       </c>
     </row>
     <row r="7">
@@ -36610,7 +36610,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106992</v>
+        <v>100212</v>
       </c>
     </row>
     <row r="8">
@@ -36620,7 +36620,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80573</v>
+        <v>75068</v>
       </c>
     </row>
     <row r="9">
@@ -36640,7 +36640,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42003</v>
+        <v>40759</v>
       </c>
     </row>
     <row r="11">
@@ -36650,7 +36650,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37130</v>
+        <v>35246</v>
       </c>
     </row>
     <row r="12">
@@ -36660,7 +36660,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38529</v>
+        <v>32280</v>
       </c>
     </row>
     <row r="13">
@@ -36670,7 +36670,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21138</v>
+        <v>31563</v>
       </c>
     </row>
     <row r="14">
@@ -36680,7 +36680,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13549</v>
+        <v>12436</v>
       </c>
     </row>
     <row r="15">
@@ -36690,7 +36690,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51767</v>
+        <v>61662</v>
       </c>
     </row>
     <row r="16">
@@ -36700,7 +36700,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30513</v>
+        <v>3683</v>
       </c>
     </row>
   </sheetData>
@@ -36714,7 +36714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36741,7 +36741,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-80533226.18888891</v>
+        <v>-56984052.55555555</v>
       </c>
     </row>
     <row r="3">
@@ -36751,7 +36751,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131999822.7</v>
+        <v>131999823</v>
       </c>
     </row>
     <row r="4">
@@ -36761,7 +36761,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19644416</v>
+        <v>17272832</v>
       </c>
     </row>
     <row r="5">
@@ -36791,7 +36791,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.3055555555555555</v>
       </c>
     </row>
     <row r="8">
@@ -36802,6 +36802,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
